--- a/biology/Virologie/Virus_de_Hendra/Virus_de_Hendra.xlsx
+++ b/biology/Virologie/Virus_de_Hendra/Virus_de_Hendra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus de Hendra, de l'espèce Hendra henipavirus, est un agent infectieux transmis par les chauves-souris et causant une infection hautement mortelle chez les chevaux ou les humains. Il est responsable de nombreuses épidémies en Australie chez les chevaux.
 Le virus de Hendra appartient au genre Henipavirus comme le virus Nipah également responsable d'épidémies humaines.
